--- a/Practicas Redes/MÉTODO V.L.S.M.xlsx
+++ b/Practicas Redes/MÉTODO V.L.S.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Cursos UD\Computer-networking-ii\Practicas Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169989E-4C01-4546-B306-69FC777461CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC21BE-29EF-4BBE-99AD-E0375023246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{12E22074-A6F2-421C-B6E3-04129A0F078C}"/>
+    <workbookView xWindow="150" yWindow="3720" windowWidth="22890" windowHeight="12180" xr2:uid="{12E22074-A6F2-421C-B6E3-04129A0F078C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
   <si>
     <t>RED Sismológica</t>
   </si>
@@ -488,63 +488,6 @@
   <si>
     <t>Dirección de
 Broadcast</t>
-  </si>
-  <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
   </si>
   <si>
     <t xml:space="preserve"> 10.5.0.0 /18</t>
@@ -905,28 +848,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +895,8 @@
       <xdr:rowOff>18369</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="927049" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -998,6 +938,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1043,7 +984,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1107,8 +1048,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="927049" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1150,6 +1091,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1195,7 +1137,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1259,8 +1201,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="927049" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1302,6 +1244,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1347,7 +1290,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1411,8 +1354,8 @@
       <xdr:rowOff>12927</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="848950" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1454,6 +1397,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1499,7 +1443,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1563,8 +1507,8 @@
       <xdr:rowOff>18371</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="848950" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1606,6 +1550,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1651,7 +1596,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1715,8 +1660,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="848950" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1758,6 +1703,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1803,7 +1749,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1867,8 +1813,8 @@
       <xdr:rowOff>29256</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770852" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1910,6 +1856,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1955,7 +1902,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -2019,8 +1966,8 @@
       <xdr:rowOff>29256</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770852" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -2062,6 +2009,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2107,7 +2055,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -2171,8 +2119,8 @@
       <xdr:rowOff>18371</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2214,6 +2162,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2259,7 +2208,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2323,8 +2272,8 @@
       <xdr:rowOff>23815</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2366,6 +2315,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2411,7 +2361,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2475,8 +2425,8 @@
       <xdr:rowOff>18370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2518,6 +2468,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2563,7 +2514,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2627,8 +2578,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2670,6 +2621,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2715,7 +2667,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2779,8 +2731,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -2822,6 +2774,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2867,7 +2820,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -2931,8 +2884,8 @@
       <xdr:rowOff>12928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -2974,6 +2927,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3019,7 +2973,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3083,8 +3037,8 @@
       <xdr:rowOff>18372</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3126,6 +3080,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3171,7 +3126,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3235,8 +3190,8 @@
       <xdr:rowOff>23817</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3278,6 +3233,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3323,7 +3279,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3387,8 +3343,8 @@
       <xdr:rowOff>29260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3430,6 +3386,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3475,7 +3432,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3539,8 +3496,8 @@
       <xdr:rowOff>29260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3582,6 +3539,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3627,7 +3585,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3691,8 +3649,8 @@
       <xdr:rowOff>18375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692754" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -3734,6 +3692,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3779,7 +3738,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -3843,8 +3802,8 @@
       <xdr:rowOff>12922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680827" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -3886,6 +3845,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3931,7 +3891,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -3995,8 +3955,8 @@
       <xdr:rowOff>18365</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680827" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -4038,6 +3998,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4083,7 +4044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -4147,8 +4108,8 @@
       <xdr:rowOff>18365</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680827" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -4190,6 +4151,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4235,7 +4197,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -4299,8 +4261,8 @@
       <xdr:rowOff>7480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602729" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -4342,6 +4304,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4387,7 +4350,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -4451,8 +4414,8 @@
       <xdr:rowOff>12924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602729" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -4494,6 +4457,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4539,7 +4503,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -4603,8 +4567,8 @@
       <xdr:rowOff>18366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602729" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -4646,6 +4610,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4691,7 +4656,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -4755,8 +4720,8 @@
       <xdr:rowOff>23809</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="524631" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -4798,6 +4763,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4843,7 +4809,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -4907,8 +4873,8 @@
       <xdr:rowOff>23809</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="524631" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -4950,6 +4916,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4995,7 +4962,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -5059,8 +5026,8 @@
       <xdr:rowOff>12924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -5102,6 +5069,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5147,7 +5115,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -5211,8 +5179,8 @@
       <xdr:rowOff>18368</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -5254,6 +5222,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5299,7 +5268,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -5363,8 +5332,8 @@
       <xdr:rowOff>12923</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 31">
@@ -5406,6 +5375,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5451,7 +5421,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 31">
@@ -5515,8 +5485,8 @@
       <xdr:rowOff>18366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -5558,6 +5528,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5603,7 +5574,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -5667,8 +5638,8 @@
       <xdr:rowOff>18366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -5710,6 +5681,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5755,7 +5727,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -5819,8 +5791,8 @@
       <xdr:rowOff>7481</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -5862,6 +5834,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5907,7 +5880,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -5971,8 +5944,8 @@
       <xdr:rowOff>12925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -6014,6 +5987,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6065,7 +6039,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -6129,8 +6103,8 @@
       <xdr:rowOff>18370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -6172,6 +6146,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6217,7 +6192,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -6281,8 +6256,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 37">
@@ -6324,6 +6299,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6369,7 +6345,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 37">
@@ -6433,8 +6409,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="CuadroTexto 38">
@@ -6476,6 +6452,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6521,7 +6498,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="CuadroTexto 38">
@@ -6585,8 +6562,8 @@
       <xdr:rowOff>12928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="446532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="CuadroTexto 39">
@@ -6628,6 +6605,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6673,7 +6651,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="CuadroTexto 39">
@@ -6737,8 +6715,8 @@
       <xdr:rowOff>17936</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="806183" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -6780,6 +6758,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6825,7 +6804,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -6889,8 +6868,8 @@
       <xdr:rowOff>23379</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="728084" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="CuadroTexto 41">
@@ -6932,6 +6911,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6977,7 +6957,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="CuadroTexto 41">
@@ -7041,8 +7021,8 @@
       <xdr:rowOff>23379</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="728084" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="CuadroTexto 42">
@@ -7084,6 +7064,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7129,7 +7110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="CuadroTexto 42">
@@ -7193,8 +7174,8 @@
       <xdr:rowOff>12494</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="728084" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="CuadroTexto 43">
@@ -7236,6 +7217,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7281,7 +7263,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="CuadroTexto 43">
@@ -7345,8 +7327,8 @@
       <xdr:rowOff>17938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="590611" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="CuadroTexto 44">
@@ -7388,6 +7370,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7433,7 +7416,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="CuadroTexto 44">
@@ -7497,8 +7480,8 @@
       <xdr:rowOff>23380</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="593432" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="CuadroTexto 45">
@@ -7540,6 +7523,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7585,7 +7569,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="CuadroTexto 45">
@@ -7649,8 +7633,8 @@
       <xdr:rowOff>28823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="515334" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="CuadroTexto 46">
@@ -7692,6 +7676,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7737,7 +7722,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="CuadroTexto 46">
@@ -7801,8 +7786,8 @@
       <xdr:rowOff>28823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="515334" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="CuadroTexto 47">
@@ -7844,6 +7829,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7889,7 +7875,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="CuadroTexto 47">
@@ -7953,8 +7939,8 @@
       <xdr:rowOff>17938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="CuadroTexto 48">
@@ -7996,6 +7982,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8041,7 +8028,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="CuadroTexto 48">
@@ -8105,8 +8092,8 @@
       <xdr:rowOff>23382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="CuadroTexto 49">
@@ -8148,6 +8135,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8193,7 +8181,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="CuadroTexto 49">
@@ -8257,8 +8245,8 @@
       <xdr:rowOff>17937</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="CuadroTexto 50">
@@ -8300,6 +8288,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8345,7 +8334,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="CuadroTexto 50">
@@ -8409,8 +8398,8 @@
       <xdr:rowOff>23380</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="CuadroTexto 51">
@@ -8452,6 +8441,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8497,7 +8487,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="CuadroTexto 51">
@@ -8561,8 +8551,8 @@
       <xdr:rowOff>23380</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="CuadroTexto 52">
@@ -8604,6 +8594,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8649,7 +8640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="CuadroTexto 52">
@@ -8713,8 +8704,8 @@
       <xdr:rowOff>12495</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="CuadroTexto 53">
@@ -8756,6 +8747,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8801,7 +8793,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="CuadroTexto 53">
@@ -8865,8 +8857,8 @@
       <xdr:rowOff>17939</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="CuadroTexto 54">
@@ -8908,6 +8900,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8959,7 +8952,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="CuadroTexto 54">
@@ -9023,8 +9016,8 @@
       <xdr:rowOff>23384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="CuadroTexto 55">
@@ -9066,6 +9059,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9111,7 +9105,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="CuadroTexto 55">
@@ -9175,8 +9169,8 @@
       <xdr:rowOff>28827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="CuadroTexto 56">
@@ -9218,6 +9212,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9263,7 +9258,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="CuadroTexto 56">
@@ -9327,8 +9322,8 @@
       <xdr:rowOff>28827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="CuadroTexto 57">
@@ -9370,6 +9365,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9415,7 +9411,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="CuadroTexto 57">
@@ -9479,8 +9475,8 @@
       <xdr:rowOff>17942</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="CuadroTexto 58">
@@ -9522,6 +9518,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9567,7 +9564,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="CuadroTexto 58">
@@ -9925,8 +9922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5A118A-A6D5-45EC-B720-94188F155001}">
   <dimension ref="B2:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9942,6 +9939,7 @@
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="37.28515625" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
     <col min="22" max="22" width="14.42578125" customWidth="1"/>
@@ -9950,1185 +9948,1185 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="U4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>790</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>8200</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>124</v>
+      <c r="U5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3100</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>3100</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>125</v>
+      <c r="U6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1860</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>126</v>
+      <c r="U7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>460</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>790</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>127</v>
+      <c r="U8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>8200</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>460</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>128</v>
+      <c r="U9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1860</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>210</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="2" t="s">
+      <c r="S10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>123</v>
+      <c r="X10" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>25</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>45</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>255255255192</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>155</v>
+      <c r="S11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>210</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>7</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>25</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>255255255224</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>156</v>
+      <c r="S12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="O13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>157</v>
+      <c r="S13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="O14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>158</v>
+      <c r="S14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="O15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>159</v>
+      <c r="S15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>4</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>2</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="5">
+      <c r="O16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>160</v>
+      <c r="S16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="O17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>161</v>
+      <c r="S17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>6</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="2" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="O18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>162</v>
+      <c r="S18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="2" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="O19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>163</v>
+      <c r="S19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="O20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>164</v>
+      <c r="S20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>9</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>9</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>2</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="2" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="O21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>165</v>
+      <c r="S21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>10</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>10</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="5">
+      <c r="O22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>166</v>
+      <c r="S22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>11</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>11</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="2" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="O23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="3">
         <v>255255255252</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>167</v>
+      <c r="S23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Practicas Redes/MÉTODO V.L.S.M.xlsx
+++ b/Practicas Redes/MÉTODO V.L.S.M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Cursos UD\Computer-networking-ii\Practicas Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Cursos UD\Computer-networking-ii\Practicas Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC21BE-29EF-4BBE-99AD-E0375023246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A47E0-593A-4120-8014-6A74A1D32859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="3720" windowWidth="22890" windowHeight="12180" xr2:uid="{12E22074-A6F2-421C-B6E3-04129A0F078C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12E22074-A6F2-421C-B6E3-04129A0F078C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="185">
   <si>
     <t>RED Sismológica</t>
   </si>
@@ -490,21 +490,6 @@
 Broadcast</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10.5.0.0 /18</t>
-  </si>
-  <si>
-    <t>10.5.64.0 /20</t>
-  </si>
-  <si>
-    <t>10.5.80.0 /21</t>
-  </si>
-  <si>
-    <t>10.5.88.0 /22</t>
-  </si>
-  <si>
-    <t>10.5.92.0 /23</t>
-  </si>
-  <si>
     <r>
       <t>11111111.11111111.11111111. 111111</t>
     </r>
@@ -520,244 +505,305 @@
     </r>
   </si>
   <si>
-    <t>10.5.94.0 /24</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
-    <t>10.5.0.1 /18</t>
-  </si>
-  <si>
-    <t>10.5.64.1 /20</t>
-  </si>
-  <si>
-    <t>10.5.80.1 /21</t>
-  </si>
-  <si>
-    <t>10.5.88.1 /22</t>
-  </si>
-  <si>
-    <t>10.5.92.1 /23</t>
-  </si>
-  <si>
-    <t>10.5.94.1 /24</t>
-  </si>
-  <si>
-    <t>10.5.94.255</t>
-  </si>
-  <si>
-    <t>10.5.63.255</t>
-  </si>
-  <si>
-    <t>10.5.79.255</t>
-  </si>
-  <si>
-    <t>10.5.87.255</t>
-  </si>
-  <si>
-    <t>10.5.91.255</t>
-  </si>
-  <si>
-    <t>10.5.93.255</t>
-  </si>
-  <si>
-    <t>10.5.63.254</t>
-  </si>
-  <si>
-    <t>10.5.79.254</t>
-  </si>
-  <si>
-    <t>10.5.87.254</t>
-  </si>
-  <si>
-    <t>10.5.91.254</t>
-  </si>
-  <si>
-    <t>10.5.93.254</t>
-  </si>
-  <si>
-    <t>10.5.94.254</t>
-  </si>
-  <si>
-    <t>10.5.0.2</t>
-  </si>
-  <si>
-    <t>10.5.64.2</t>
-  </si>
-  <si>
-    <t>10.5.80.2</t>
-  </si>
-  <si>
-    <t>10.5.88.2</t>
-  </si>
-  <si>
-    <t>10.5.92.2</t>
-  </si>
-  <si>
-    <t>10.5.94.2</t>
-  </si>
-  <si>
-    <t>10.5.95.1 /26</t>
-  </si>
-  <si>
-    <t>10.5.95.0 /26</t>
-  </si>
-  <si>
-    <t>10.5.95.64 /27</t>
-  </si>
-  <si>
-    <t>10.5.95.96 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.100 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.104 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.108 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.112 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.116 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.120 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.124 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.128 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.132 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.136 /30</t>
-  </si>
-  <si>
-    <t>10.5.95.63</t>
-  </si>
-  <si>
-    <t>10.5.95.95</t>
-  </si>
-  <si>
-    <t>10.5.95.99</t>
-  </si>
-  <si>
-    <t>10.5.95.103</t>
-  </si>
-  <si>
-    <t>10.5.95.107</t>
-  </si>
-  <si>
-    <t>10.5.95.111</t>
-  </si>
-  <si>
-    <t>10.5.95.115</t>
-  </si>
-  <si>
-    <t>10.5.95.119</t>
-  </si>
-  <si>
-    <t>10.5.95.123</t>
-  </si>
-  <si>
-    <t>10.5.95.127</t>
-  </si>
-  <si>
-    <t>10.5.95.131</t>
-  </si>
-  <si>
-    <t>10.5.95.135</t>
-  </si>
-  <si>
-    <t>10.5.95.139</t>
-  </si>
-  <si>
-    <t>10.5.95.62</t>
-  </si>
-  <si>
-    <t>10.5.95.94</t>
-  </si>
-  <si>
-    <t>10.5.95.98</t>
-  </si>
-  <si>
-    <t>10.5.95.102</t>
-  </si>
-  <si>
-    <t>10.5.95.106</t>
-  </si>
-  <si>
-    <t>10.5.95.110</t>
-  </si>
-  <si>
-    <t>10.5.95.114</t>
-  </si>
-  <si>
-    <t>10.5.95.118</t>
-  </si>
-  <si>
-    <t>10.5.95.122</t>
-  </si>
-  <si>
-    <t>10.5.95.126</t>
-  </si>
-  <si>
-    <t>10.5.95.130</t>
-  </si>
-  <si>
-    <t>10.5.95.134</t>
-  </si>
-  <si>
-    <t>10.5.95.138</t>
-  </si>
-  <si>
-    <t>10.5.95.2</t>
-  </si>
-  <si>
-    <t>10.5.95.66</t>
-  </si>
-  <si>
-    <t>10.5.95.97</t>
-  </si>
-  <si>
-    <t>10.5.95.101</t>
-  </si>
-  <si>
-    <t>10.5.95.105</t>
-  </si>
-  <si>
-    <t>10.5.95.109</t>
-  </si>
-  <si>
-    <t>10.5.95.113</t>
-  </si>
-  <si>
-    <t>10.5.95.117</t>
-  </si>
-  <si>
-    <t>10.5.95.121</t>
-  </si>
-  <si>
-    <t>10.5.95.125</t>
-  </si>
-  <si>
-    <t>10.5.95.129</t>
-  </si>
-  <si>
-    <t>10.5.95.133</t>
-  </si>
-  <si>
-    <t>10.5.95.137</t>
-  </si>
-  <si>
-    <t>10.5.95.65 /27</t>
+    <t xml:space="preserve"> 10.4.0.0 /14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.4.0.0 /18</t>
+  </si>
+  <si>
+    <t>10.4.64.0 /20</t>
+  </si>
+  <si>
+    <t>10.4.80.0 /21</t>
+  </si>
+  <si>
+    <t>10.4.88.0 /22</t>
+  </si>
+  <si>
+    <t>10.4.92.0 /23</t>
+  </si>
+  <si>
+    <t>10.4.94.0 /24</t>
+  </si>
+  <si>
+    <t>10.4.95.0 /26</t>
+  </si>
+  <si>
+    <t>10.4.95.64 /27</t>
+  </si>
+  <si>
+    <t>10.4.95.96 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.100 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.104 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.108 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.112 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.116 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.120 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.124 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.128 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.132 /30</t>
+  </si>
+  <si>
+    <t>10.4.95.136 /30</t>
+  </si>
+  <si>
+    <t>10.4.0.1 /18</t>
+  </si>
+  <si>
+    <t>10.4.64.1 /20</t>
+  </si>
+  <si>
+    <t>10.4.80.1 /21</t>
+  </si>
+  <si>
+    <t>10.4.88.1 /22</t>
+  </si>
+  <si>
+    <t>10.4.92.1 /23</t>
+  </si>
+  <si>
+    <t>10.4.94.1 /24</t>
+  </si>
+  <si>
+    <t>10.4.95.1 /26</t>
+  </si>
+  <si>
+    <t>10.4.95.65 /27</t>
+  </si>
+  <si>
+    <t>10.4.0.2</t>
+  </si>
+  <si>
+    <t>10.4.64.2</t>
+  </si>
+  <si>
+    <t>10.4.80.2</t>
+  </si>
+  <si>
+    <t>10.4.88.2</t>
+  </si>
+  <si>
+    <t>10.4.92.2</t>
+  </si>
+  <si>
+    <t>10.4.94.2</t>
+  </si>
+  <si>
+    <t>10.4.95.2</t>
+  </si>
+  <si>
+    <t>10.4.95.66</t>
+  </si>
+  <si>
+    <t>10.4.95.97</t>
+  </si>
+  <si>
+    <t>10.4.95.101</t>
+  </si>
+  <si>
+    <t>10.4.95.105</t>
+  </si>
+  <si>
+    <t>10.4.95.109</t>
+  </si>
+  <si>
+    <t>10.4.95.113</t>
+  </si>
+  <si>
+    <t>10.4.95.117</t>
+  </si>
+  <si>
+    <t>10.4.95.121</t>
+  </si>
+  <si>
+    <t>10.4.95.125</t>
+  </si>
+  <si>
+    <t>10.4.95.129</t>
+  </si>
+  <si>
+    <t>10.4.95.133</t>
+  </si>
+  <si>
+    <t>10.4.95.137</t>
+  </si>
+  <si>
+    <t>10.4.63.254</t>
+  </si>
+  <si>
+    <t>10.4.79.254</t>
+  </si>
+  <si>
+    <t>10.4.87.254</t>
+  </si>
+  <si>
+    <t>10.4.91.254</t>
+  </si>
+  <si>
+    <t>10.4.93.254</t>
+  </si>
+  <si>
+    <t>10.4.94.254</t>
+  </si>
+  <si>
+    <t>10.4.95.62</t>
+  </si>
+  <si>
+    <t>10.4.95.94</t>
+  </si>
+  <si>
+    <t>10.4.95.98</t>
+  </si>
+  <si>
+    <t>10.4.95.102</t>
+  </si>
+  <si>
+    <t>10.4.95.106</t>
+  </si>
+  <si>
+    <t>10.4.95.110</t>
+  </si>
+  <si>
+    <t>10.4.95.114</t>
+  </si>
+  <si>
+    <t>10.4.95.118</t>
+  </si>
+  <si>
+    <t>10.4.95.122</t>
+  </si>
+  <si>
+    <t>10.4.95.126</t>
+  </si>
+  <si>
+    <t>10.4.95.130</t>
+  </si>
+  <si>
+    <t>10.4.95.134</t>
+  </si>
+  <si>
+    <t>10.4.95.138</t>
+  </si>
+  <si>
+    <t>10.4.63.255</t>
+  </si>
+  <si>
+    <t>10.4.79.255</t>
+  </si>
+  <si>
+    <t>10.4.87.255</t>
+  </si>
+  <si>
+    <t>10.4.91.255</t>
+  </si>
+  <si>
+    <t>10.4.93.255</t>
+  </si>
+  <si>
+    <t>10.4.94.255</t>
+  </si>
+  <si>
+    <t>10.4.95.63</t>
+  </si>
+  <si>
+    <t>10.4.95.95</t>
+  </si>
+  <si>
+    <t>10.4.95.99</t>
+  </si>
+  <si>
+    <t>10.4.95.103</t>
+  </si>
+  <si>
+    <t>10.4.95.107</t>
+  </si>
+  <si>
+    <t>10.4.95.111</t>
+  </si>
+  <si>
+    <t>10.4.95.115</t>
+  </si>
+  <si>
+    <t>10.4.95.119</t>
+  </si>
+  <si>
+    <t>10.4.95.123</t>
+  </si>
+  <si>
+    <t>10.4.95.127</t>
+  </si>
+  <si>
+    <t>10.4.95.131</t>
+  </si>
+  <si>
+    <t>10.4.95.135</t>
+  </si>
+  <si>
+    <t>10.4.95.139</t>
+  </si>
+  <si>
+    <t>No es una dirección de red válida</t>
+  </si>
+  <si>
+    <t>11111111.11111100.00000000.00000000</t>
+  </si>
+  <si>
+    <t>00001010.00000101.00000000.00000000</t>
+  </si>
+  <si>
+    <t>00001010.00000100.00000000.00000000</t>
+  </si>
+  <si>
+    <t>Aplicando un AND</t>
+  </si>
+  <si>
+    <t>Esta es la direccion de red válida con la que se inicia el ejercicio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.5.0.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/14</t>
+    </r>
+  </si>
+  <si>
+    <t>10.4.0.0 /14</t>
   </si>
 </sst>
 </file>
@@ -848,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -867,6 +913,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9920,34 +9978,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5A118A-A6D5-45EC-B720-94188F155001}">
-  <dimension ref="B2:X23"/>
+  <dimension ref="B2:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="37.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -9961,7 +10020,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -9970,8 +10029,16 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -10018,7 +10085,7 @@
         <v>86</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>87</v>
@@ -10030,7 +10097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10074,22 +10141,22 @@
         <v>66</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10133,22 +10200,22 @@
         <v>67</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10192,22 +10259,22 @@
         <v>68</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -10251,22 +10318,22 @@
         <v>69</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10310,22 +10377,22 @@
         <v>70</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10369,22 +10436,22 @@
         <v>71</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10428,22 +10495,22 @@
         <v>72</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10487,22 +10554,22 @@
         <v>73</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10534,7 +10601,7 @@
         <v>34</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P13" s="3">
         <v>255255255252</v>
@@ -10546,20 +10613,20 @@
         <v>74</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10591,7 +10658,7 @@
         <v>34</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P14" s="3">
         <v>255255255252</v>
@@ -10603,20 +10670,20 @@
         <v>75</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10648,7 +10715,7 @@
         <v>34</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P15" s="3">
         <v>255255255252</v>
@@ -10660,20 +10727,20 @@
         <v>76</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10705,7 +10772,7 @@
         <v>34</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P16" s="3">
         <v>255255255252</v>
@@ -10717,20 +10784,20 @@
         <v>77</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10762,7 +10829,7 @@
         <v>34</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P17" s="3">
         <v>255255255252</v>
@@ -10774,20 +10841,20 @@
         <v>78</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10819,7 +10886,7 @@
         <v>34</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P18" s="3">
         <v>255255255252</v>
@@ -10831,20 +10898,20 @@
         <v>79</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10876,7 +10943,7 @@
         <v>34</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P19" s="3">
         <v>255255255252</v>
@@ -10888,20 +10955,20 @@
         <v>80</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
@@ -10933,7 +11000,7 @@
         <v>34</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P20" s="3">
         <v>255255255252</v>
@@ -10945,20 +11012,20 @@
         <v>81</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -10990,7 +11057,7 @@
         <v>34</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P21" s="3">
         <v>255255255252</v>
@@ -11002,20 +11069,20 @@
         <v>82</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11047,7 +11114,7 @@
         <v>34</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P22" s="3">
         <v>255255255252</v>
@@ -11059,20 +11126,20 @@
         <v>83</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -11104,7 +11171,7 @@
         <v>34</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P23" s="3">
         <v>255255255252</v>
@@ -11116,26 +11183,63 @@
         <v>84</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E26" s="12"/>
+      <c r="F26" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
